--- a/AlquileresApp_V2.xlsx
+++ b/AlquileresApp_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/UTN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Expensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7005023D-DF42-A449-AE47-D199668AE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E56FD2-01BF-4464-973C-949785B94E01}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{7005023D-DF42-A449-AE47-D199668AE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C58BC452-9617-4B6B-9669-7BEB770C88D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="535" firstSheet="11" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="535" firstSheet="11" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="209">
   <si>
     <t>Fotographos</t>
   </si>
@@ -685,6 +685,15 @@
   </si>
   <si>
     <t>Expensas Marzo</t>
+  </si>
+  <si>
+    <t>Alquiler Abril 2025</t>
+  </si>
+  <si>
+    <t>Expensas Abril</t>
+  </si>
+  <si>
+    <t>AGUA Enero Feb Marzo</t>
   </si>
 </sst>
 </file>
@@ -5217,11 +5226,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:AR17"/>
+  <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ10" sqref="AQ10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5270,10 +5279,12 @@
     <col min="42" max="42" width="13.5" style="64" customWidth="1"/>
     <col min="43" max="43" width="12.375" style="64" customWidth="1"/>
     <col min="44" max="44" width="13.5" style="64" customWidth="1"/>
-    <col min="45" max="16384" width="10.875" style="64"/>
+    <col min="45" max="45" width="12.375" style="64" customWidth="1"/>
+    <col min="46" max="46" width="13.5" style="64" customWidth="1"/>
+    <col min="47" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="130" t="s">
         <v>144</v>
       </c>
@@ -5350,8 +5361,12 @@
         <v>45689</v>
       </c>
       <c r="AR1" s="129"/>
-    </row>
-    <row r="2" spans="1:44" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS1" s="128">
+        <v>45717</v>
+      </c>
+      <c r="AT1" s="129"/>
+    </row>
+    <row r="2" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5475,8 +5490,14 @@
       <c r="AR2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5565,8 +5586,12 @@
       <c r="AR3" s="82">
         <v>32884.120000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="82">
+        <v>29233.119999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5651,8 +5676,12 @@
       <c r="AR4" s="84">
         <v>32883.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="84">
+        <v>29232.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5737,8 +5766,12 @@
       <c r="AR5" s="84">
         <v>32884.050000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="84">
+        <v>29233.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5831,8 +5864,12 @@
       <c r="AR6" s="84">
         <v>179478.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="84">
+        <v>144798.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="65">
         <v>277</v>
@@ -5922,8 +5959,12 @@
       <c r="AR7" s="84">
         <v>163216.76999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="84">
+        <v>131666.76999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="73"/>
       <c r="B8" s="74">
         <v>456</v>
@@ -5988,8 +6029,12 @@
       <c r="AR8" s="86">
         <v>228264.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="86">
+        <v>184195.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>13</v>
       </c>
@@ -6131,8 +6176,13 @@
         <f>SUM(AQ3:AR8)</f>
         <v>669611.78</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="88">
+        <f>SUM(AS3:AT8)</f>
+        <v>548359.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>136</v>
       </c>
@@ -6225,8 +6275,12 @@
       <c r="AR10" s="82">
         <v>113750.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS10" s="81"/>
+      <c r="AT10" s="82">
+        <v>125125.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="65">
         <v>18</v>
@@ -6321,8 +6375,12 @@
       <c r="AR11" s="84">
         <v>120000.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="84">
+        <v>132000.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="73"/>
       <c r="B12" s="74">
         <v>21</v>
@@ -6414,8 +6472,10 @@
       <c r="AP12" s="86"/>
       <c r="AQ12" s="85"/>
       <c r="AR12" s="86"/>
-    </row>
-    <row r="13" spans="1:44" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS12" s="85"/>
+      <c r="AT12" s="86"/>
+    </row>
+    <row r="13" spans="1:46" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
         <v>13</v>
       </c>
@@ -6557,8 +6617,15 @@
         <f>SUM(AR10:AR12)</f>
         <v>233750.21</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS13" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT13" s="88">
+        <f>SUM(AT10:AT12)</f>
+        <v>257125.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>140</v>
       </c>
@@ -6685,8 +6752,14 @@
       <c r="AR14" s="92">
         <v>154750.10999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS14" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT14" s="92">
+        <v>173320.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>142</v>
       </c>
@@ -6811,8 +6884,14 @@
       <c r="AR15" s="92">
         <v>126000.11</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT15" s="92">
+        <v>130000.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
         <v>151</v>
       </c>
@@ -6934,8 +7013,14 @@
       <c r="AR16" s="90">
         <v>180000.02</v>
       </c>
-    </row>
-    <row r="17" spans="12:44" x14ac:dyDescent="0.25">
+      <c r="AS16" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT16" s="90">
+        <v>180000.02</v>
+      </c>
+    </row>
+    <row r="17" spans="12:46" x14ac:dyDescent="0.25">
       <c r="L17" s="91">
         <f>L16+L15+L14+L13+L9</f>
         <v>336506.88</v>
@@ -7004,9 +7089,25 @@
         <f>AR16+AR15+AR14+AR13+AR9</f>
         <v>1364112.23</v>
       </c>
+      <c r="AT17" s="91">
+        <f>AT16+AT15+AT14+AT13+AT9</f>
+        <v>1288805.23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7014,18 +7115,7 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7033,10 +7123,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7258,6 +7348,73 @@
       <c r="A27" s="109"/>
       <c r="B27" s="110"/>
       <c r="C27" s="111"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="116">
+        <v>469000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="116">
+        <v>131666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="116">
+        <v>48521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="116">
+        <v>41316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="116">
+        <v>99629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="116">
+        <f>SUM(C29:C33)</f>
+        <v>790132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8295,7 +8452,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45733</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/AlquileresApp_V2.xlsx
+++ b/AlquileresApp_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Expensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{7005023D-DF42-A449-AE47-D199668AE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C58BC452-9617-4B6B-9669-7BEB770C88D4}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{7005023D-DF42-A449-AE47-D199668AE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4163C40B-CB0F-4200-8826-5D38037C7F11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="535" firstSheet="11" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="535" firstSheet="7" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="209">
   <si>
     <t>Fotographos</t>
   </si>
@@ -1526,8 +1526,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1603,8 +1603,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1909,7 +1913,7 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
@@ -3747,7 +3751,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4039,7 +4043,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4362,7 +4366,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4665,7 +4669,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4945,7 +4949,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -5226,14 +5230,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT7" sqref="AT7"/>
+      <selection pane="topRight" activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
@@ -5281,10 +5285,12 @@
     <col min="44" max="44" width="13.5" style="64" customWidth="1"/>
     <col min="45" max="45" width="12.375" style="64" customWidth="1"/>
     <col min="46" max="46" width="13.5" style="64" customWidth="1"/>
-    <col min="47" max="16384" width="10.875" style="64"/>
+    <col min="47" max="47" width="12.375" style="64" customWidth="1"/>
+    <col min="48" max="48" width="13.5" style="64" customWidth="1"/>
+    <col min="49" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="130" t="s">
         <v>144</v>
       </c>
@@ -5365,8 +5371,12 @@
         <v>45717</v>
       </c>
       <c r="AT1" s="129"/>
-    </row>
-    <row r="2" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU1" s="128">
+        <v>45748</v>
+      </c>
+      <c r="AV1" s="129"/>
+    </row>
+    <row r="2" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5496,8 +5506,14 @@
       <c r="AT2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5590,8 +5606,12 @@
       <c r="AT3" s="82">
         <v>29233.119999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="82">
+        <v>35086.120000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5680,8 +5700,12 @@
       <c r="AT4" s="84">
         <v>29232.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="84">
+        <v>35085.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5770,8 +5794,12 @@
       <c r="AT5" s="84">
         <v>29233.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="84">
+        <v>35086.050000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5868,8 +5896,12 @@
       <c r="AT6" s="84">
         <v>144798.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="84">
+        <v>186262.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="65">
         <v>277</v>
@@ -5963,8 +5995,12 @@
       <c r="AT7" s="84">
         <v>131666.76999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="84">
+        <v>169389.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="73"/>
       <c r="B8" s="74">
         <v>456</v>
@@ -6033,8 +6069,12 @@
       <c r="AT8" s="86">
         <v>184195.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="86">
+        <v>236881.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>13</v>
       </c>
@@ -6176,13 +6216,20 @@
         <f>SUM(AQ3:AR8)</f>
         <v>669611.78</v>
       </c>
-      <c r="AS9" s="87"/>
+      <c r="AS9" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="AT9" s="88">
         <f>SUM(AS3:AT8)</f>
         <v>548359.78</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="88">
+        <f>SUM(AU3:AV8)</f>
+        <v>697791.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>136</v>
       </c>
@@ -6279,8 +6326,12 @@
       <c r="AT10" s="82">
         <v>125125.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="82">
+        <v>125125.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="65">
         <v>18</v>
@@ -6379,8 +6430,12 @@
       <c r="AT11" s="84">
         <v>132000.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="84">
+        <v>132000.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="73"/>
       <c r="B12" s="74">
         <v>21</v>
@@ -6474,8 +6529,10 @@
       <c r="AR12" s="86"/>
       <c r="AS12" s="85"/>
       <c r="AT12" s="86"/>
-    </row>
-    <row r="13" spans="1:46" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU12" s="85"/>
+      <c r="AV12" s="86"/>
+    </row>
+    <row r="13" spans="1:48" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
         <v>13</v>
       </c>
@@ -6624,8 +6681,13 @@
         <f>SUM(AT10:AT12)</f>
         <v>257125.21</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="88">
+        <f>SUM(AV10:AV12)</f>
+        <v>257125.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>140</v>
       </c>
@@ -6758,8 +6820,12 @@
       <c r="AT14" s="92">
         <v>173320.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="92">
+        <v>173320.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>142</v>
       </c>
@@ -6890,8 +6956,12 @@
       <c r="AT15" s="92">
         <v>130000.11</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="92">
+        <v>130000.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
         <v>151</v>
       </c>
@@ -7019,8 +7089,12 @@
       <c r="AT16" s="90">
         <v>180000.02</v>
       </c>
-    </row>
-    <row r="17" spans="12:46" x14ac:dyDescent="0.25">
+      <c r="AU16" s="89"/>
+      <c r="AV16" s="90">
+        <v>180000.02</v>
+      </c>
+    </row>
+    <row r="17" spans="12:48" x14ac:dyDescent="0.25">
       <c r="L17" s="91">
         <f>L16+L15+L14+L13+L9</f>
         <v>336506.88</v>
@@ -7093,21 +7167,14 @@
         <f>AT16+AT15+AT14+AT13+AT9</f>
         <v>1288805.23</v>
       </c>
+      <c r="AV17" s="91">
+        <f>AV16+AV15+AV14+AV13+AV9</f>
+        <v>1438237.23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="21">
+    <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7116,6 +7183,18 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7125,11 +7204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
   <dimension ref="A2:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="107" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="108" customWidth="1"/>
@@ -7429,7 +7508,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="98" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
@@ -7985,7 +8064,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="98" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -8437,7 +8516,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
@@ -8452,7 +8531,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8615,7 +8694,7 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8887,7 +8966,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9158,7 +9237,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9445,7 +9524,7 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9850,7 +9929,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -10211,7 +10290,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -10471,7 +10550,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>

--- a/AlquileresApp_V2.xlsx
+++ b/AlquileresApp_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Expensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Expensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{7005023D-DF42-A449-AE47-D199668AE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4163C40B-CB0F-4200-8826-5D38037C7F11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F638E1F-160C-3C44-8758-5E950D3BF838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="535" firstSheet="7" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="29200" yWindow="1080" windowWidth="28800" windowHeight="17520" tabRatio="535" firstSheet="7" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="211">
   <si>
     <t>Fotographos</t>
   </si>
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>AGUA Enero Feb Marzo</t>
+  </si>
+  <si>
+    <t>AGUA Abril</t>
+  </si>
+  <si>
+    <t>MUCHA</t>
   </si>
 </sst>
 </file>
@@ -701,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1174,25 +1180,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1204,7 +1210,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,28 +1313,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1416,7 +1422,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1434,16 +1440,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1452,8 +1458,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1524,6 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1601,10 +1608,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1913,21 +1916,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="17" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1981,7 +1984,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2026,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -2063,7 +2066,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -2103,7 +2106,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2143,7 +2146,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2183,7 +2186,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2227,7 +2230,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2271,7 +2274,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2315,7 +2318,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2359,7 +2362,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2404,7 +2407,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2448,7 +2451,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2492,7 +2495,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2537,7 +2540,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2582,7 +2585,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2627,7 +2630,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2672,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2722,7 +2725,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2772,7 +2775,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2820,7 +2823,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2868,7 +2871,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2914,7 +2917,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2960,7 +2963,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -3006,7 +3009,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -3050,7 +3053,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -3094,7 +3097,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3139,7 +3142,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3184,7 +3187,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3229,7 +3232,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3273,7 +3276,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3317,7 +3320,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3362,7 +3365,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3407,7 +3410,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3440,7 +3443,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3470,7 +3473,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3490,7 +3493,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3510,7 +3513,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3528,7 +3531,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3546,7 +3549,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3562,7 +3565,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3578,7 +3581,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3594,7 +3597,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3610,7 +3613,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3626,7 +3629,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3642,7 +3645,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3658,7 +3661,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3674,7 +3677,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3690,7 +3693,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3706,7 +3709,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3722,7 +3725,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3751,22 +3754,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.125" style="31"/>
+    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3779,12 +3782,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3799,12 +3802,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3817,7 +3820,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3826,7 +3829,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3835,12 +3838,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3849,7 +3852,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3858,12 +3861,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>26</v>
       </c>
@@ -3874,7 +3877,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3891,7 +3894,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3904,7 +3907,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3926,12 +3929,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>14</v>
       </c>
@@ -3942,7 +3945,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3959,7 +3962,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3970,7 +3973,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3979,7 +3982,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3990,7 +3993,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4001,22 +4004,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -4043,19 +4046,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4068,12 +4071,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4088,12 +4091,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4106,7 +4109,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4115,7 +4118,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4124,12 +4127,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4140,7 +4143,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4151,12 +4154,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>26</v>
       </c>
@@ -4167,7 +4170,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4184,7 +4187,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4195,7 +4198,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4206,7 +4209,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4214,12 +4217,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>47</v>
       </c>
@@ -4230,7 +4233,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4247,7 +4250,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4264,7 +4267,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4275,7 +4278,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4286,7 +4289,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4298,7 +4301,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4366,19 +4369,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4391,12 +4394,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4411,12 +4414,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4429,7 +4432,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4440,7 +4443,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4449,12 +4452,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4468,7 +4471,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4482,12 +4485,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>129</v>
       </c>
@@ -4498,7 +4501,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4515,7 +4518,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4526,7 +4529,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4537,7 +4540,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4548,12 +4551,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>54</v>
       </c>
@@ -4564,7 +4567,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4581,7 +4584,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4598,7 +4601,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4609,7 +4612,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4622,7 +4625,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4635,13 +4638,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4669,19 +4672,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4694,12 +4697,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4714,12 +4717,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4730,7 +4733,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4739,7 +4742,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4748,12 +4751,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4762,7 +4765,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4771,12 +4774,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>26</v>
       </c>
@@ -4787,7 +4790,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4804,7 +4807,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4815,7 +4818,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4828,7 +4831,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4838,12 +4841,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>14</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4871,7 +4874,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4888,7 +4891,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4899,7 +4902,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4912,7 +4915,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4949,19 +4952,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4974,12 +4977,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4994,12 +4997,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -5012,7 +5015,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -5021,7 +5024,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -5030,12 +5033,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -5046,7 +5049,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -5057,12 +5060,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>26</v>
       </c>
@@ -5073,7 +5076,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -5090,7 +5093,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -5101,7 +5104,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -5114,7 +5117,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5126,12 +5129,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>14</v>
       </c>
@@ -5142,7 +5145,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5159,7 +5162,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5176,7 +5179,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5189,7 +5192,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5202,7 +5205,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5232,65 +5235,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV17" sqref="AV17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="64" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="64" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="64" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="64" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="64" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="64" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="64" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="64" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="64" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="64" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="64" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="64" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="64" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="64" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="64" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="64" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="64" customWidth="1"/>
-    <col min="19" max="19" width="12.375" style="64" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="64" customWidth="1"/>
     <col min="20" max="20" width="13.5" style="64" customWidth="1"/>
-    <col min="21" max="21" width="12.375" style="64" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="64" customWidth="1"/>
     <col min="22" max="22" width="13.5" style="64" customWidth="1"/>
-    <col min="23" max="23" width="12.375" style="64" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="64" customWidth="1"/>
     <col min="24" max="24" width="13.5" style="64" customWidth="1"/>
-    <col min="25" max="25" width="12.375" style="64" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" style="64" customWidth="1"/>
     <col min="26" max="26" width="13.5" style="64" customWidth="1"/>
-    <col min="27" max="27" width="12.375" style="64" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" style="64" customWidth="1"/>
     <col min="28" max="28" width="13.5" style="64" customWidth="1"/>
-    <col min="29" max="29" width="12.375" style="64" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" style="64" customWidth="1"/>
     <col min="30" max="30" width="13.5" style="64" customWidth="1"/>
-    <col min="31" max="31" width="12.375" style="64" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" style="64" customWidth="1"/>
     <col min="32" max="32" width="13.5" style="64" customWidth="1"/>
-    <col min="33" max="33" width="12.375" style="64" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" style="64" customWidth="1"/>
     <col min="34" max="34" width="13.5" style="64" customWidth="1"/>
-    <col min="35" max="35" width="12.375" style="64" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" style="64" customWidth="1"/>
     <col min="36" max="36" width="13.5" style="64" customWidth="1"/>
-    <col min="37" max="37" width="12.375" style="64" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" style="64" customWidth="1"/>
     <col min="38" max="38" width="13.5" style="64" customWidth="1"/>
-    <col min="39" max="39" width="12.375" style="64" customWidth="1"/>
+    <col min="39" max="39" width="12.33203125" style="64" customWidth="1"/>
     <col min="40" max="40" width="13.5" style="64" customWidth="1"/>
-    <col min="41" max="41" width="12.375" style="64" customWidth="1"/>
+    <col min="41" max="41" width="12.33203125" style="64" customWidth="1"/>
     <col min="42" max="42" width="13.5" style="64" customWidth="1"/>
-    <col min="43" max="43" width="12.375" style="64" customWidth="1"/>
+    <col min="43" max="43" width="12.33203125" style="64" customWidth="1"/>
     <col min="44" max="44" width="13.5" style="64" customWidth="1"/>
-    <col min="45" max="45" width="12.375" style="64" customWidth="1"/>
+    <col min="45" max="45" width="12.33203125" style="64" customWidth="1"/>
     <col min="46" max="46" width="13.5" style="64" customWidth="1"/>
-    <col min="47" max="47" width="12.375" style="64" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" style="64" customWidth="1"/>
     <col min="48" max="48" width="13.5" style="64" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="64"/>
+    <col min="49" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="130" t="s">
         <v>144</v>
       </c>
@@ -5376,7 +5379,7 @@
       </c>
       <c r="AV1" s="129"/>
     </row>
-    <row r="2" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>35086.120000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5705,7 +5708,7 @@
         <v>35085.57</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5799,7 +5802,7 @@
         <v>35086.050000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5901,7 +5904,7 @@
         <v>186262.71</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="72"/>
       <c r="B7" s="65">
         <v>277</v>
@@ -6000,7 +6003,7 @@
         <v>169389.77</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" s="74">
         <v>456</v>
@@ -6074,7 +6077,7 @@
         <v>236881.56</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>13</v>
       </c>
@@ -6223,13 +6226,15 @@
         <f>SUM(AS3:AT8)</f>
         <v>548359.78</v>
       </c>
-      <c r="AU9" s="87"/>
+      <c r="AU9" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="AV9" s="88">
         <f>SUM(AU3:AV8)</f>
         <v>697791.78</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>136</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>125125.03</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
       <c r="B11" s="65">
         <v>18</v>
@@ -6435,7 +6440,7 @@
         <v>132000.18</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="73"/>
       <c r="B12" s="74">
         <v>21</v>
@@ -6532,7 +6537,7 @@
       <c r="AU12" s="85"/>
       <c r="AV12" s="86"/>
     </row>
-    <row r="13" spans="1:48" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>13</v>
       </c>
@@ -6681,13 +6686,15 @@
         <f>SUM(AT10:AT12)</f>
         <v>257125.21</v>
       </c>
-      <c r="AU13" s="87"/>
+      <c r="AU13" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="AV13" s="88">
         <f>SUM(AV10:AV12)</f>
         <v>257125.21</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>140</v>
       </c>
@@ -6820,12 +6827,14 @@
       <c r="AT14" s="92">
         <v>173320.11</v>
       </c>
-      <c r="AU14" s="89"/>
+      <c r="AU14" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AV14" s="92">
         <v>173320.11</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>142</v>
       </c>
@@ -6956,12 +6965,14 @@
       <c r="AT15" s="92">
         <v>130000.11</v>
       </c>
-      <c r="AU15" s="89"/>
+      <c r="AU15" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AV15" s="92">
         <v>130000.11</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
         <v>151</v>
       </c>
@@ -7089,12 +7100,14 @@
       <c r="AT16" s="90">
         <v>180000.02</v>
       </c>
-      <c r="AU16" s="89"/>
+      <c r="AU16" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AV16" s="90">
         <v>180000.02</v>
       </c>
     </row>
-    <row r="17" spans="12:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:48" x14ac:dyDescent="0.2">
       <c r="L17" s="91">
         <f>L16+L15+L14+L13+L9</f>
         <v>336506.88</v>
@@ -7174,6 +7187,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
@@ -7183,11 +7201,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AO1:AP1"/>
@@ -7202,21 +7215,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
-  <dimension ref="A2:C34"/>
+  <dimension ref="A2:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="107" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="108" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="108" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="107" customWidth="1"/>
     <col min="4" max="16384" width="11" style="107"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="114" t="s">
         <v>192</v>
       </c>
@@ -7227,7 +7240,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
         <v>193</v>
       </c>
@@ -7238,7 +7251,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="114" t="s">
         <v>194</v>
       </c>
@@ -7249,7 +7262,7 @@
         <v>138989.76999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
         <v>195</v>
       </c>
@@ -7260,7 +7273,7 @@
         <v>179181.77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
         <v>26</v>
       </c>
@@ -7269,7 +7282,7 @@
       </c>
       <c r="C6" s="116"/>
     </row>
-    <row r="7" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
         <v>176</v>
       </c>
@@ -7278,7 +7291,7 @@
       </c>
       <c r="C7" s="116"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
         <v>177</v>
       </c>
@@ -7287,7 +7300,7 @@
       </c>
       <c r="C8" s="116"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="109" t="s">
         <v>163</v>
       </c>
@@ -7299,7 +7312,7 @@
         <v>1256171.54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="107" t="s">
         <v>199</v>
       </c>
@@ -7308,11 +7321,11 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="115"/>
       <c r="C13" s="116"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="107" t="s">
         <v>200</v>
       </c>
@@ -7323,7 +7336,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="107" t="s">
         <v>201</v>
       </c>
@@ -7334,7 +7347,7 @@
         <v>210019.77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="114" t="s">
         <v>26</v>
       </c>
@@ -7343,7 +7356,7 @@
       </c>
       <c r="C16" s="116"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="114" t="s">
         <v>176</v>
       </c>
@@ -7354,7 +7367,7 @@
         <v>16226</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="114" t="s">
         <v>177</v>
       </c>
@@ -7365,7 +7378,7 @@
         <v>59170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="109" t="s">
         <v>163</v>
       </c>
@@ -7377,7 +7390,7 @@
         <v>754415.77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="107" t="s">
         <v>202</v>
       </c>
@@ -7386,7 +7399,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="107" t="s">
         <v>203</v>
       </c>
@@ -7395,7 +7408,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="114" t="s">
         <v>204</v>
       </c>
@@ -7404,7 +7417,7 @@
         <v>225483</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="114" t="s">
         <v>205</v>
       </c>
@@ -7413,7 +7426,7 @@
         <v>163216</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="114" t="s">
         <v>13</v>
       </c>
@@ -7423,12 +7436,12 @@
         <v>1326699</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="109"/>
       <c r="B27" s="110"/>
       <c r="C27" s="111"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="114" t="s">
         <v>206</v>
       </c>
@@ -7439,7 +7452,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="114" t="s">
         <v>207</v>
       </c>
@@ -7450,7 +7463,7 @@
         <v>131666</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="114" t="s">
         <v>26</v>
       </c>
@@ -7461,7 +7474,7 @@
         <v>48521</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="114" t="s">
         <v>176</v>
       </c>
@@ -7472,7 +7485,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="114" t="s">
         <v>208</v>
       </c>
@@ -7483,7 +7496,7 @@
         <v>99629</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="109" t="s">
         <v>163</v>
       </c>
@@ -7493,6 +7506,64 @@
       <c r="C34" s="116">
         <f>SUM(C29:C33)</f>
         <v>790132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="116">
+        <v>597425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="116">
+        <v>169389.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="107">
+        <v>33182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="107">
+        <v>20332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="131">
+        <f>SUM(C37:C40)</f>
+        <v>820328.77</v>
       </c>
     </row>
   </sheetData>
@@ -7508,23 +7579,23 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="98" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="97"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -7534,7 +7605,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="94"/>
     </row>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="97" t="s">
         <v>172</v>
       </c>
@@ -7560,7 +7631,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="103" t="s">
         <v>108</v>
       </c>
@@ -7589,7 +7660,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="97"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -7608,7 +7679,7 @@
       <c r="P4" s="99"/>
       <c r="Q4" s="99"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="97"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -7636,7 +7707,7 @@
       <c r="P5" s="99"/>
       <c r="Q5" s="99"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="97"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -7667,7 +7738,7 @@
       <c r="P6" s="99"/>
       <c r="Q6" s="99"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -7695,7 +7766,7 @@
       <c r="P7" s="99"/>
       <c r="Q7" s="99"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="103" t="s">
         <v>136</v>
       </c>
@@ -7728,7 +7799,7 @@
       <c r="P8" s="99"/>
       <c r="Q8" s="99"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="97"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -7756,7 +7827,7 @@
       <c r="P9" s="99"/>
       <c r="Q9" s="99"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -7784,7 +7855,7 @@
       <c r="P10" s="99"/>
       <c r="Q10" s="99"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="97" t="s">
         <v>153</v>
       </c>
@@ -7814,7 +7885,7 @@
       <c r="P11" s="99"/>
       <c r="Q11" s="99"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="103" t="s">
         <v>44</v>
       </c>
@@ -7844,7 +7915,7 @@
       <c r="P12" s="99"/>
       <c r="Q12" s="99"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="97"/>
       <c r="C13" s="65" t="s">
         <v>155</v>
@@ -7872,7 +7943,7 @@
       <c r="P13" s="99"/>
       <c r="Q13" s="99"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="97"/>
       <c r="C14" s="65" t="s">
         <v>156</v>
@@ -7900,7 +7971,7 @@
       <c r="P14" s="99"/>
       <c r="Q14" s="99"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="97"/>
       <c r="C15" s="65" t="s">
         <v>157</v>
@@ -7928,7 +7999,7 @@
       <c r="P15" s="99"/>
       <c r="Q15" s="99"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="74" t="s">
         <v>158</v>
@@ -7959,7 +8030,7 @@
       <c r="P16" s="99"/>
       <c r="Q16" s="99"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="97" t="s">
         <v>159</v>
       </c>
@@ -7984,7 +8055,7 @@
       <c r="P17" s="99"/>
       <c r="Q17" s="99"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="103" t="s">
         <v>163</v>
       </c>
@@ -7999,7 +8070,7 @@
       <c r="H18" s="70"/>
       <c r="I18" s="95"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="98" t="s">
         <v>166</v>
       </c>
@@ -8008,7 +8079,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="98" t="s">
         <v>173</v>
       </c>
@@ -8017,7 +8088,7 @@
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="98" t="s">
         <v>15</v>
       </c>
@@ -8025,7 +8096,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="98" t="s">
         <v>14</v>
       </c>
@@ -8033,7 +8104,7 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="98" t="s">
         <v>174</v>
       </c>
@@ -8041,7 +8112,7 @@
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="98" t="s">
         <v>163</v>
       </c>
@@ -8064,16 +8135,16 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="98" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="97"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -8081,7 +8152,7 @@
       <c r="F1" s="99"/>
       <c r="G1" s="94"/>
     </row>
-    <row r="2" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="97"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -8108,7 +8179,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
         <v>179</v>
       </c>
@@ -8136,7 +8207,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="97"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -8154,7 +8225,7 @@
       <c r="G4" s="94"/>
       <c r="I4" s="113"/>
     </row>
-    <row r="5" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
         <v>178</v>
       </c>
@@ -8178,7 +8249,7 @@
       </c>
       <c r="I5" s="113"/>
     </row>
-    <row r="6" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
         <v>178</v>
       </c>
@@ -8207,7 +8278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>180</v>
       </c>
@@ -8234,7 +8305,7 @@
       </c>
       <c r="I7" s="113"/>
     </row>
-    <row r="8" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>181</v>
       </c>
@@ -8265,7 +8336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>182</v>
       </c>
@@ -8297,7 +8368,7 @@
         <v>230200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>183</v>
       </c>
@@ -8331,7 +8402,7 @@
       </c>
       <c r="K10" s="93"/>
     </row>
-    <row r="11" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>184</v>
       </c>
@@ -8362,7 +8433,7 @@
         <v>255200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="103" t="s">
         <v>44</v>
       </c>
@@ -8387,7 +8458,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="97"/>
       <c r="C13" s="65" t="s">
         <v>155</v>
@@ -8404,7 +8475,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="97"/>
       <c r="C14" s="65" t="s">
         <v>156</v>
@@ -8424,7 +8495,7 @@
         <v>154286</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="97"/>
       <c r="C15" s="65" t="s">
         <v>157</v>
@@ -8447,7 +8518,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="74" t="s">
         <v>158</v>
@@ -8467,7 +8538,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="97" t="s">
         <v>159</v>
       </c>
@@ -8489,7 +8560,7 @@
         <v>357703</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="103" t="s">
         <v>163</v>
       </c>
@@ -8516,29 +8587,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="8"/>
+    <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45785</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -8547,7 +8618,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -8555,7 +8626,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -8563,7 +8634,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -8571,7 +8642,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -8579,7 +8650,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -8587,7 +8658,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -8595,7 +8666,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8606,7 +8677,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -8617,7 +8688,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -8628,7 +8699,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -8639,7 +8710,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -8650,7 +8721,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -8658,23 +8729,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -8694,17 +8765,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8714,8 +8785,8 @@
       <c r="C2" s="118"/>
       <c r="D2" s="119"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8727,8 +8798,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8736,33 +8807,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>26</v>
       </c>
@@ -8770,7 +8841,7 @@
       <c r="C13" s="123"/>
       <c r="D13" s="124"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8782,7 +8853,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8790,7 +8861,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8800,7 +8871,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8812,8 +8883,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>83</v>
       </c>
@@ -8821,7 +8892,7 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8835,7 +8906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8849,7 +8920,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -8861,7 +8932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8871,7 +8942,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8879,7 +8950,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="125" t="s">
         <v>100</v>
       </c>
@@ -8887,7 +8958,7 @@
       <c r="C26" s="126"/>
       <c r="D26" s="127"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8897,7 +8968,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8909,7 +8980,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8919,7 +8990,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8929,7 +9000,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8966,18 +9037,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8987,8 +9058,8 @@
       <c r="C2" s="118"/>
       <c r="D2" s="119"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9000,8 +9071,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9011,33 +9082,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>26</v>
       </c>
@@ -9045,7 +9116,7 @@
       <c r="C13" s="123"/>
       <c r="D13" s="124"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9057,7 +9128,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9067,7 +9138,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9148,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9087,8 +9158,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>83</v>
       </c>
@@ -9096,7 +9167,7 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9110,7 +9181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9122,7 +9193,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9132,7 +9203,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9142,7 +9213,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9150,7 +9221,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="125" t="s">
         <v>100</v>
       </c>
@@ -9158,7 +9229,7 @@
       <c r="C26" s="126"/>
       <c r="D26" s="127"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9168,7 +9239,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9180,7 +9251,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9190,7 +9261,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9200,7 +9271,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9237,17 +9308,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9257,8 +9328,8 @@
       <c r="C2" s="118"/>
       <c r="D2" s="119"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9270,8 +9341,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9279,33 +9350,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>99</v>
       </c>
@@ -9316,7 +9387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9328,7 +9399,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9336,7 +9407,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9346,7 +9417,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9354,8 +9425,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>83</v>
       </c>
@@ -9363,7 +9434,7 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9377,7 +9448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9389,7 +9460,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9399,7 +9470,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9409,7 +9480,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9417,7 +9488,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="125" t="s">
         <v>100</v>
       </c>
@@ -9425,7 +9496,7 @@
       <c r="C26" s="126"/>
       <c r="D26" s="127"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9439,7 +9510,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9451,7 +9522,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9461,7 +9532,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9471,7 +9542,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -9485,7 +9556,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -9524,20 +9595,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9555,7 +9626,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -9565,7 +9636,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9585,7 +9656,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -9595,7 +9666,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9611,7 +9682,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -9626,7 +9697,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9640,7 +9711,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -9651,7 +9722,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9659,7 +9730,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9668,13 +9739,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>99</v>
       </c>
@@ -9686,7 +9757,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9702,7 +9773,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9716,7 +9787,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9730,7 +9801,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9741,13 +9812,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>83</v>
       </c>
@@ -9759,7 +9830,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9777,7 +9848,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9793,7 +9864,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9807,7 +9878,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9821,7 +9892,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9830,10 +9901,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="125" t="s">
         <v>100</v>
       </c>
@@ -9842,7 +9913,7 @@
       <c r="D26" s="127"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9857,7 +9928,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9870,7 +9941,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9881,7 +9952,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9892,7 +9963,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9929,19 +10000,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9955,13 +10026,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9977,13 +10048,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9995,7 +10066,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -10005,7 +10076,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -10015,13 +10086,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -10031,7 +10102,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -10041,13 +10112,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>99</v>
       </c>
@@ -10059,7 +10130,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -10073,7 +10144,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -10085,7 +10156,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -10097,7 +10168,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -10108,13 +10179,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>83</v>
       </c>
@@ -10126,7 +10197,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -10144,7 +10215,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -10160,7 +10231,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -10174,7 +10245,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -10188,7 +10259,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -10197,10 +10268,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="125" t="s">
         <v>100</v>
       </c>
@@ -10209,7 +10280,7 @@
       <c r="D26" s="127"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -10220,7 +10291,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -10233,7 +10304,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -10244,7 +10315,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -10253,7 +10324,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -10290,17 +10361,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -10310,8 +10381,8 @@
       <c r="C2" s="118"/>
       <c r="D2" s="119"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -10323,8 +10394,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -10332,33 +10403,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>99</v>
       </c>
@@ -10366,7 +10437,7 @@
       <c r="C13" s="123"/>
       <c r="D13" s="124"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -10376,7 +10447,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -10384,7 +10455,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -10392,7 +10463,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -10402,8 +10473,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>83</v>
       </c>
@@ -10411,7 +10482,7 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -10425,7 +10496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -10437,7 +10508,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -10447,7 +10518,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -10457,7 +10528,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -10465,7 +10536,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="125" t="s">
         <v>100</v>
       </c>
@@ -10473,7 +10544,7 @@
       <c r="C26" s="126"/>
       <c r="D26" s="127"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -10483,7 +10554,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -10495,7 +10566,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -10505,7 +10576,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -10513,7 +10584,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -10550,19 +10621,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -10575,12 +10646,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -10595,12 +10666,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -10613,7 +10684,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -10624,7 +10695,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -10633,12 +10704,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -10649,7 +10720,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -10660,12 +10731,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122" t="s">
         <v>26</v>
       </c>
@@ -10676,7 +10747,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -10691,7 +10762,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -10704,7 +10775,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -10717,7 +10788,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -10728,12 +10799,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>14</v>
       </c>
@@ -10744,7 +10815,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -10761,7 +10832,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -10778,7 +10849,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -10789,7 +10860,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -10800,7 +10871,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -10811,22 +10882,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
